--- a/data/cost_noise.xlsx
+++ b/data/cost_noise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02A0303-2AAA-463E-9869-3CF6B964E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE632FE9-6F26-4DDA-885D-206EC3C60DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yearly" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,15 +445,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -482,7 +481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -496,7 +495,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -510,7 +509,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -524,7 +523,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -538,7 +537,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -563,15 +562,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -591,14 +590,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>305</v>
       </c>
       <c r="D2">
@@ -611,14 +610,14 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>305</v>
       </c>
       <c r="D3">
@@ -631,14 +630,14 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>305</v>
       </c>
       <c r="D4">
@@ -661,15 +660,15 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -680,7 +679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -691,7 +690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -702,7 +701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -713,7 +712,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -724,7 +723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -735,7 +734,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -746,7 +745,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -757,7 +756,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>

--- a/data/cost_noise.xlsx
+++ b/data/cost_noise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE632FE9-6F26-4DDA-885D-206EC3C60DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1399C210-C219-43F6-9C8B-5B6844EDF16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yearly" sheetId="1" r:id="rId1"/>
@@ -160,8 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,12 +447,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,84 +475,84 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>46</v>
+      <c r="B2" s="2">
+        <v>43.977855361596006</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.4673316708229418</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50.44518703241895</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>81</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>88</v>
+      <c r="B3" s="2">
+        <v>87.955710723192013</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.7607980049875307</v>
+      </c>
+      <c r="D3" s="2">
+        <v>95.716508728179548</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>81</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>91</v>
+      <c r="B4" s="2">
+        <v>87.955710723192013</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11.641197007481296</v>
+      </c>
+      <c r="D4" s="2">
+        <v>99.596907730673308</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>153</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>167</v>
+      <c r="B5" s="2">
+        <v>166.8571571072319</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15.521596009975061</v>
+      </c>
+      <c r="D5" s="2">
+        <v>182.37875311720697</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>153</v>
-      </c>
-      <c r="C6">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>172</v>
+      <c r="B6" s="2">
+        <v>166.8571571072319</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20.695461346633415</v>
+      </c>
+      <c r="D6" s="2">
+        <v>187.55261845386534</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>153</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>178</v>
+      <c r="B7" s="2">
+        <v>166.8571571072319</v>
+      </c>
+      <c r="C7" s="2">
+        <v>27.162793017456359</v>
+      </c>
+      <c r="D7" s="2">
+        <v>194.01995012468828</v>
       </c>
     </row>
   </sheetData>
@@ -562,12 +566,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,60 +601,60 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>305</v>
-      </c>
-      <c r="D2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="E2">
-        <v>10.71</v>
-      </c>
-      <c r="F2">
-        <v>0.55000000000000004</v>
+      <c r="B2" s="2">
+        <v>1.0865117206982542</v>
+      </c>
+      <c r="C2" s="2">
+        <v>332.42084788029922</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.6516059850374063</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11.692935660847878</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.59499451371571066</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>305</v>
-      </c>
-      <c r="D3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="E3">
-        <v>10.71</v>
-      </c>
-      <c r="F3">
-        <v>0.33</v>
+      <c r="B3" s="2">
+        <v>1.0865117206982542</v>
+      </c>
+      <c r="C3" s="2">
+        <v>332.42084788029922</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.6516059850374063</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11.692935660847878</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.14228129675810472</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>305</v>
-      </c>
-      <c r="D4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="E4">
-        <v>10.71</v>
-      </c>
-      <c r="F4">
-        <v>0.01</v>
+      <c r="B4" s="2">
+        <v>1.0865117206982542</v>
+      </c>
+      <c r="C4" s="2">
+        <v>332.42084788029922</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.6516059850374063</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11.692935660847878</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.2934663341645884E-2</v>
       </c>
     </row>
   </sheetData>
@@ -660,12 +667,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,91 +691,97 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>48</v>
+      <c r="B2" s="2">
+        <v>23.641086328022151</v>
+      </c>
+      <c r="C2" s="2">
+        <v>57.424046467753122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>49</v>
-      </c>
-      <c r="C3">
-        <v>66</v>
+      <c r="B3" s="2">
+        <v>58.612395707146824</v>
+      </c>
+      <c r="C3" s="2">
+        <v>79.099569076181183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>85</v>
+      <c r="B4" s="2">
+        <v>74.204185475430393</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100.77509168460976</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>103</v>
+      <c r="B5" s="2">
+        <v>95.819728401863671</v>
+      </c>
+      <c r="C5" s="2">
+        <v>122.45061429303937</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
-        <v>101</v>
-      </c>
-      <c r="C6">
-        <v>121</v>
+      <c r="B6" s="2">
+        <v>120.859074449839</v>
+      </c>
+      <c r="C6" s="2">
+        <v>144.12613690146694</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
-        <v>123</v>
-      </c>
-      <c r="C7">
-        <v>121</v>
+      <c r="B7" s="2">
+        <v>146.83230703511626</v>
+      </c>
+      <c r="C7" s="2">
+        <v>144.12613690146694</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
-        <v>146</v>
-      </c>
-      <c r="C8">
-        <v>121</v>
+      <c r="B8" s="2">
+        <v>173.73973189799972</v>
+      </c>
+      <c r="C8" s="2">
+        <v>144.12613690146694</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
-        <v>158</v>
-      </c>
-      <c r="C9">
-        <v>121</v>
+      <c r="B9" s="2">
+        <v>188.81741016031719</v>
+      </c>
+      <c r="C9" s="2">
+        <v>144.12613690146694</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{fd60f3b8-f236-4830-aecc-da0a7fc54679}" enabled="1" method="Standard" siteId="{76f33c20-5979-4408-adf7-8b3c4be95e52}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>